--- a/DMSdemo/src/main/java/dmsdemo/Resources/dmsdemodata.xlsx
+++ b/DMSdemo/src/main/java/dmsdemo/Resources/dmsdemodata.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
